--- a/Arbeitsmatrix GDW Meilenstein 3.xlsx
+++ b/Arbeitsmatrix GDW Meilenstein 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gdw_uebungen\Master\GDWWS1920JohannsenMohr-DamaSpitra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBB1B95F-48AA-4790-AFDD-9906515AEC82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD57327D-25E6-4AEE-ACA9-7D44030E9906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CE697907-DDDA-45C3-90A8-3E276A404BF1}"/>
   </bookViews>
@@ -92,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -408,55 +409,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4CA2C4-882E-47DE-804B-BAB466F1EE47}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -464,6 +529,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100143CA41F1252234B966D7276D0B4AFCB" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="661abc4f5f5b890461643ebb9bc84756">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d0383999-4dca-4c19-bc7f-5bfd2091257d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490e3eb7f04f0d76759c6c8a6fe9921b" ns3:_="">
     <xsd:import namespace="d0383999-4dca-4c19-bc7f-5bfd2091257d"/>
@@ -595,22 +675,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A8967E9-F857-4BD2-948E-03D3874E7643}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d0383999-4dca-4c19-bc7f-5bfd2091257d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5915872A-23D9-4CFD-8855-54DE6F2404DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDA89474-8791-4E6B-879D-4377C82DC3BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -626,28 +715,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5915872A-23D9-4CFD-8855-54DE6F2404DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A8967E9-F857-4BD2-948E-03D3874E7643}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d0383999-4dca-4c19-bc7f-5bfd2091257d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>